--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/ChamCongLamThem.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/ChamCongLamThem.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>STT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>HO_TEN</t>
   </si>
@@ -26,6 +23,33 @@
   </si>
   <si>
     <t>MA_NV</t>
+  </si>
+  <si>
+    <t>DON_VI</t>
+  </si>
+  <si>
+    <t>CHUC_VU</t>
+  </si>
+  <si>
+    <t>010537</t>
+  </si>
+  <si>
+    <t>010538</t>
+  </si>
+  <si>
+    <t>010540</t>
+  </si>
+  <si>
+    <t>010542</t>
+  </si>
+  <si>
+    <t>010543</t>
+  </si>
+  <si>
+    <t>010544</t>
+  </si>
+  <si>
+    <t>010545</t>
   </si>
 </sst>
 </file>
@@ -101,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,14 +137,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,103 +454,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10537</v>
-      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10538</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10540</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10542</v>
-      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10543</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10544</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10545</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
